--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\smart-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>12V SLA Battery</t>
   </si>
@@ -50,9 +50,6 @@
     <t>208 oz-in (rated); 19 RPM (rated); 3.8 A (stall)</t>
   </si>
   <si>
-    <t>12V Motor</t>
-  </si>
-  <si>
     <t>Unit Weight (lbs)</t>
   </si>
   <si>
@@ -117,6 +114,12 @@
   </si>
   <si>
     <t>200mm</t>
+  </si>
+  <si>
+    <t>6V Motor</t>
+  </si>
+  <si>
+    <t>Pololu</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,10 +514,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>6</v>
@@ -523,16 +526,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -540,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3">
         <v>37</v>
@@ -560,11 +563,11 @@
       </c>
       <c r="J2" s="7">
         <f>SUM(C:C)</f>
-        <v>143.5</v>
+        <v>165.87</v>
       </c>
       <c r="K2">
         <f>SUM(G:G)</f>
-        <v>9.3955479999999998</v>
+        <v>8.072773999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -572,7 +575,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3">
         <v>13</v>
@@ -593,16 +596,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3">
-        <v>17.63</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -612,15 +615,15 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2.6455479999999998</v>
+        <v>1.3227739999999999</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>4.99</v>
@@ -629,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5">
         <f>0.78</f>
@@ -642,10 +645,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="C6" s="3">
         <v>9.2899999999999991</v>
@@ -663,10 +666,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3">
         <v>4.5199999999999996</v>
@@ -681,10 +684,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>7.06</v>
@@ -699,10 +702,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="3">
         <v>9.68</v>
@@ -717,10 +720,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3">
         <v>7.4</v>
@@ -729,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
@@ -738,10 +741,10 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>13.55</v>
@@ -750,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
@@ -759,10 +762,10 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3">
         <v>19.38</v>
@@ -771,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
@@ -854,15 +857,15 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-    <hyperlink ref="A5" r:id="rId4"/>
-    <hyperlink ref="A6" r:id="rId5"/>
-    <hyperlink ref="A7" r:id="rId6"/>
-    <hyperlink ref="A8" r:id="rId7" location="57655k11/=1eeja5n"/>
-    <hyperlink ref="A9" r:id="rId8" location="57655k31/=1eejat2"/>
-    <hyperlink ref="A10" r:id="rId9"/>
-    <hyperlink ref="A11" r:id="rId10" location="1265K31"/>
-    <hyperlink ref="A12" r:id="rId11" location="1265K31"/>
+    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A6" r:id="rId4"/>
+    <hyperlink ref="A7" r:id="rId5"/>
+    <hyperlink ref="A8" r:id="rId6" location="57655k11/=1eeja5n"/>
+    <hyperlink ref="A9" r:id="rId7" location="57655k31/=1eejat2"/>
+    <hyperlink ref="A10" r:id="rId8"/>
+    <hyperlink ref="A11" r:id="rId9" location="1265K31"/>
+    <hyperlink ref="A12" r:id="rId10" location="1265K31"/>
+    <hyperlink ref="A4" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId12"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
-  <si>
-    <t>12V SLA Battery</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Part</t>
   </si>
@@ -35,21 +33,9 @@
     <t>Specifications</t>
   </si>
   <si>
-    <t>5 lbs; 7 Ah</t>
-  </si>
-  <si>
-    <t>Motor Controller</t>
-  </si>
-  <si>
-    <t>13 A; single output</t>
-  </si>
-  <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>208 oz-in (rated); 19 RPM (rated); 3.8 A (stall)</t>
-  </si>
-  <si>
     <t>Unit Weight (lbs)</t>
   </si>
   <si>
@@ -62,21 +48,12 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>System Price</t>
-  </si>
-  <si>
     <t>System Weight (lbs)</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t>BatteriesPlus</t>
-  </si>
-  <si>
-    <t>RobotShop</t>
-  </si>
-  <si>
     <t>Harbor Freight</t>
   </si>
   <si>
@@ -116,10 +93,76 @@
     <t>200mm</t>
   </si>
   <si>
-    <t>6V Motor</t>
-  </si>
-  <si>
     <t>Pololu</t>
+  </si>
+  <si>
+    <t>Arduino Nano</t>
+  </si>
+  <si>
+    <t>Arduino Mega</t>
+  </si>
+  <si>
+    <t>10A Dual-channel; 5-25V; 30 A peak</t>
+  </si>
+  <si>
+    <t>3D Compass</t>
+  </si>
+  <si>
+    <t>LSM303D</t>
+  </si>
+  <si>
+    <t>System Cost</t>
+  </si>
+  <si>
+    <t>basketPlatform</t>
+  </si>
+  <si>
+    <t>Home Depot</t>
+  </si>
+  <si>
+    <t>2'x2', 0.451" thick plywood</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>1.375"x1.37"-96" strip board</t>
+  </si>
+  <si>
+    <t>heat set inserts</t>
+  </si>
+  <si>
+    <t>6V gearmotor</t>
+  </si>
+  <si>
+    <t>ultrasonic sensor</t>
+  </si>
+  <si>
+    <t>HC-SR04</t>
+  </si>
+  <si>
+    <t>motor driver</t>
+  </si>
+  <si>
+    <t>SLA battery charger</t>
+  </si>
+  <si>
+    <t>micro servo</t>
+  </si>
+  <si>
+    <t>SLA battery</t>
+  </si>
+  <si>
+    <t>6V, 12Ah</t>
+  </si>
+  <si>
+    <t>Ordered?</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>caster wheel</t>
   </si>
 </sst>
 </file>
@@ -198,16 +241,16 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -490,384 +533,540 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="9" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="6"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10">
+        <f>7.89/2</f>
+        <v>3.9449999999999998</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.9841600000000001E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2*F2</f>
+        <v>3.9683200000000002E-2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="4">
+        <f>SUMPRODUCT(C:C,D:D)</f>
+        <v>208.31</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(G:G)</f>
+        <v>19.031498070000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="G3" s="4">
+        <f>D3*F3</f>
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:G14" si="0">D4*F4</f>
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10">
+        <f>13.86/3</f>
+        <v>4.62</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.32277E-2</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9683099999999999E-2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10">
+        <v>14.86</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.1571000000000005E-2</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1571000000000005E-2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10">
+        <v>28.8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10">
+        <f>9.78/5</f>
+        <v>1.956</v>
+      </c>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="10">
+        <f>39.95</f>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.47399400000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.94798800000000005</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7.95</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.32277E-3</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.32277E-3</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7.08</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.68</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="7">
+        <v>4.99</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3">
-        <v>37</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f>D2*F2</f>
-        <v>5</v>
-      </c>
-      <c r="J2" s="7">
-        <f>SUM(C:C)</f>
-        <v>165.87</v>
-      </c>
-      <c r="K2">
-        <f>SUM(G:G)</f>
-        <v>8.072773999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G24" si="0">D3*F3</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4">
-        <v>0.66138699999999995</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.3227739999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4.99</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <f>0.78</f>
-        <v>0.78</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="L12" s="7">
         <v>9.2899999999999991</v>
       </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.09</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7">
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10">
+        <v>6.35</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <f>6.6/16</f>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="7">
         <v>7.06</v>
       </c>
-      <c r="D8" s="6">
+      <c r="M14" s="7">
         <v>2</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="8"/>
+      <c r="J15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="7">
         <v>9.68</v>
       </c>
-      <c r="D9" s="6">
+      <c r="M15" s="7">
         <v>2</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="9" t="s">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="7">
+        <v>13.55</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="J18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="3">
-        <v>7.4</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3">
-        <v>13.55</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="K18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="7">
         <v>19.38</v>
       </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="M18" s="7">
+        <v>1</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" display="Micro Servo"/>
+    <hyperlink ref="A4" r:id="rId2" display="SLA Battery Charger"/>
     <hyperlink ref="A5" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5"/>
-    <hyperlink ref="A8" r:id="rId6" location="57655k11/=1eeja5n"/>
-    <hyperlink ref="A9" r:id="rId7" location="57655k31/=1eejat2"/>
+    <hyperlink ref="A7" r:id="rId5" display="Motor Driver"/>
+    <hyperlink ref="A8" r:id="rId6" display="Ultrasonic Sensor"/>
+    <hyperlink ref="A9" r:id="rId7" display="6V Gearmotor"/>
     <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="A11" r:id="rId9" location="1265K31"/>
-    <hyperlink ref="A12" r:id="rId10" location="1265K31"/>
-    <hyperlink ref="A4" r:id="rId11"/>
+    <hyperlink ref="J11" r:id="rId9"/>
+    <hyperlink ref="J12" r:id="rId10"/>
+    <hyperlink ref="J13" r:id="rId11"/>
+    <hyperlink ref="J14" r:id="rId12" location="57655k11/=1eeja5n"/>
+    <hyperlink ref="J15" r:id="rId13" location="57655k31/=1eejat2"/>
+    <hyperlink ref="J16" r:id="rId14"/>
+    <hyperlink ref="J17" r:id="rId15" location="1265K31"/>
+    <hyperlink ref="J18" r:id="rId16" location="1265K31"/>
+    <hyperlink ref="A11" r:id="rId17"/>
+    <hyperlink ref="A12" r:id="rId18"/>
+    <hyperlink ref="A3" r:id="rId19"/>
+    <hyperlink ref="A14" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Sid\Projects\Smart Cart\smart-cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\Desktop\smart-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Part</t>
   </si>
@@ -163,12 +162,18 @@
   </si>
   <si>
     <t>caster wheel</t>
+  </si>
+  <si>
+    <t>40 lb load rating</t>
+  </si>
+  <si>
+    <t>drive wheel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -239,7 +244,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -251,6 +256,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -536,7 +542,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,11 +621,11 @@
       </c>
       <c r="I2" s="4">
         <f>SUMPRODUCT(C:C,D:D)</f>
-        <v>208.31</v>
+        <v>221.21</v>
       </c>
       <c r="J2" s="4">
         <f>SUM(G:G)</f>
-        <v>19.031498070000001</v>
+        <v>21.031498070000001</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -928,13 +934,16 @@
         <v>45</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10">
-        <v>6.35</v>
+        <v>2.97</v>
       </c>
       <c r="D14" s="7">
         <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F14" s="4">
         <f>6.6/16</f>
@@ -958,8 +967,25 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11">
+        <v>8.14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <f>D15*F15</f>
+        <v>2</v>
+      </c>
       <c r="J15" s="5" t="s">
         <v>15</v>
       </c>
@@ -1065,8 +1091,9 @@
     <hyperlink ref="A12" r:id="rId18"/>
     <hyperlink ref="A3" r:id="rId19"/>
     <hyperlink ref="A14" r:id="rId20"/>
+    <hyperlink ref="A15" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk7363\Desktop\smart-cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurw\Sid\Projects\Smart Cart\smart-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD423BA6-77DA-4725-8A12-7BCE2A21F8C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Part</t>
   </si>
@@ -41,9 +42,6 @@
     <t>Total Weight (lbs)</t>
   </si>
   <si>
-    <t>6" Diameter Wheels</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -53,45 +51,9 @@
     <t>Source</t>
   </si>
   <si>
-    <t>Harbor Freight</t>
-  </si>
-  <si>
-    <t>94 lbf working load; rubber</t>
-  </si>
-  <si>
-    <t>Spherical Caster</t>
-  </si>
-  <si>
     <t>Amazon</t>
   </si>
   <si>
-    <t>3mm-5mm Coupling</t>
-  </si>
-  <si>
-    <t>Output Plastic Gear</t>
-  </si>
-  <si>
-    <t>Input Plastic Gear</t>
-  </si>
-  <si>
-    <t>McMaster</t>
-  </si>
-  <si>
-    <t>6mm-6mm Coupling</t>
-  </si>
-  <si>
-    <t>Set of 2</t>
-  </si>
-  <si>
-    <t>3mm Rotary Shaft</t>
-  </si>
-  <si>
-    <t>6mm Rotary Shaft</t>
-  </si>
-  <si>
-    <t>200mm</t>
-  </si>
-  <si>
     <t>Pololu</t>
   </si>
   <si>
@@ -119,9 +81,6 @@
     <t>Home Depot</t>
   </si>
   <si>
-    <t>2'x2', 0.451" thick plywood</t>
-  </si>
-  <si>
     <t>column</t>
   </si>
   <si>
@@ -131,9 +90,6 @@
     <t>heat set inserts</t>
   </si>
   <si>
-    <t>6V gearmotor</t>
-  </si>
-  <si>
     <t>ultrasonic sensor</t>
   </si>
   <si>
@@ -168,12 +124,27 @@
   </si>
   <si>
     <t>drive wheel</t>
+  </si>
+  <si>
+    <t>Received?</t>
+  </si>
+  <si>
+    <t>12V gearmotor</t>
+  </si>
+  <si>
+    <t>2'x2'-0.451" plywood</t>
+  </si>
+  <si>
+    <t>Self-supplied</t>
+  </si>
+  <si>
+    <t>drivePlatform</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -538,40 +509,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="8" max="8" width="9.109375" style="4"/>
+    <col min="9" max="9" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -586,21 +558,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10">
         <f>7.89/2</f>
@@ -617,23 +592,26 @@
         <v>3.9683200000000002E-2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="4">
+        <v>29</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4">
         <f>SUMPRODUCT(C:C,D:D)</f>
-        <v>221.21</v>
-      </c>
-      <c r="J2" s="4">
+        <v>225.35000000000002</v>
+      </c>
+      <c r="L2" s="4">
         <f>SUM(G:G)</f>
-        <v>21.031498070000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>28.711498070000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="10">
         <v>18</v>
@@ -642,7 +620,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4">
         <v>3.7</v>
@@ -651,13 +629,16 @@
         <f>D3*F3</f>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="10">
         <v>9.6999999999999993</v>
@@ -669,19 +650,22 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G14" si="0">D4*F4</f>
+        <f t="shared" ref="G4:G15" si="0">D4*F4</f>
         <v>0.05</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5" s="10">
         <f>13.86/3</f>
@@ -698,15 +682,18 @@
         <v>3.9683099999999999E-2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10">
         <v>14.86</v>
@@ -722,15 +709,18 @@
         <v>8.1571000000000005E-2</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10">
         <v>28.8</v>
@@ -739,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F7" s="4">
         <v>6.6250000000000003E-2</v>
@@ -749,15 +739,18 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10">
         <f>9.78/5</f>
@@ -767,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4">
         <v>2.5000000000000001E-3</v>
@@ -777,15 +770,18 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C9" s="10">
         <f>39.95</f>
@@ -802,15 +798,18 @@
         <v>0.94798800000000005</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10" s="10">
         <v>7.95</v>
@@ -819,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F10" s="4">
         <v>1.32277E-3</v>
@@ -829,24 +828,27 @@
         <v>1.32277E-3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10">
-        <v>7.08</v>
+        <v>5.53</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4">
         <v>5.68</v>
@@ -855,245 +857,222 @@
         <f t="shared" si="0"/>
         <v>5.68</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="7">
-        <v>4.99</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="H11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5.53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.68</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" ref="G12" si="1">D12*F12</f>
+        <v>5.68</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.15</v>
+      </c>
+      <c r="D13" s="7">
         <v>2</v>
       </c>
-      <c r="N11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7">
-        <v>9.2899999999999991</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="G13" s="4">
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="M13" s="7">
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2.97</v>
+      </c>
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="10">
-        <v>2.97</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4">
         <f>6.6/16</f>
         <v>0.41249999999999998</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G15" s="4">
         <f t="shared" si="0"/>
         <v>0.41249999999999998</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7">
-        <v>7.06</v>
-      </c>
-      <c r="M14" s="7">
+      <c r="H15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11">
+        <v>8.14</v>
+      </c>
+      <c r="D16" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="11">
-        <v>8.14</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <f>D15*F15</f>
-        <v>2</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="7">
-        <v>9.68</v>
-      </c>
-      <c r="M15" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7">
-        <v>7.4</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="4">
+        <f>D16*F16</f>
+        <v>4</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7">
-        <v>13.55</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="7">
-        <v>19.38</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Micro Servo"/>
-    <hyperlink ref="A4" r:id="rId2" display="SLA Battery Charger"/>
-    <hyperlink ref="A5" r:id="rId3"/>
-    <hyperlink ref="A6" r:id="rId4"/>
-    <hyperlink ref="A7" r:id="rId5" display="Motor Driver"/>
-    <hyperlink ref="A8" r:id="rId6" display="Ultrasonic Sensor"/>
-    <hyperlink ref="A9" r:id="rId7" display="6V Gearmotor"/>
-    <hyperlink ref="A10" r:id="rId8"/>
-    <hyperlink ref="J11" r:id="rId9"/>
-    <hyperlink ref="J12" r:id="rId10"/>
-    <hyperlink ref="J13" r:id="rId11"/>
-    <hyperlink ref="J14" r:id="rId12" location="57655k11/=1eeja5n"/>
-    <hyperlink ref="J15" r:id="rId13" location="57655k31/=1eejat2"/>
-    <hyperlink ref="J16" r:id="rId14"/>
-    <hyperlink ref="J17" r:id="rId15" location="1265K31"/>
-    <hyperlink ref="J18" r:id="rId16" location="1265K31"/>
-    <hyperlink ref="A11" r:id="rId17"/>
-    <hyperlink ref="A12" r:id="rId18"/>
-    <hyperlink ref="A3" r:id="rId19"/>
-    <hyperlink ref="A14" r:id="rId20"/>
-    <hyperlink ref="A15" r:id="rId21"/>
+    <hyperlink ref="A2" r:id="rId1" display="Micro Servo" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="SLA Battery Charger" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" display="Motor Driver" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId6" display="Ultrasonic Sensor" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A12" r:id="rId14" xr:uid="{9B594192-29ED-47F6-8FFB-1BA1C37E9105}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skurw\Sid\Projects\Smart Cart\smart-cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CD423BA6-77DA-4725-8A12-7BCE2A21F8C1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B3AAE70-CFFC-48CD-942B-0B88CCCB12B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>Part</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Unit Price</t>
   </si>
   <si>
-    <t>System Weight (lbs)</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -139,6 +136,21 @@
   </si>
   <si>
     <t>drivePlatform</t>
+  </si>
+  <si>
+    <t>fuses</t>
+  </si>
+  <si>
+    <t>220 pieces</t>
+  </si>
+  <si>
+    <t>8-32 screw size (L)</t>
+  </si>
+  <si>
+    <t>Off-the-Shelf System Weight (lbs)</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,22 +537,21 @@
     <col min="5" max="5" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="4"/>
+    <col min="8" max="8" width="11.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="4"/>
+    <col min="10" max="10" width="19.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>5</v>
@@ -558,24 +569,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="10">
         <f>7.89/2</f>
@@ -592,35 +603,35 @@
         <v>3.9683200000000002E-2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="J2" s="10">
+        <f>SUMPRODUCT(C:C,D:D)</f>
+        <v>235.24</v>
       </c>
       <c r="K2" s="4">
-        <f>SUMPRODUCT(C:C,D:D)</f>
-        <v>225.35000000000002</v>
-      </c>
-      <c r="L2" s="4">
         <f>SUM(G:G)</f>
-        <v>28.711498070000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28.841498070000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="10">
-        <v>18</v>
+        <v>14.99</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4">
         <v>3.7</v>
@@ -629,16 +640,19 @@
         <f>D3*F3</f>
         <v>3.7</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I3" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="10">
         <v>9.6999999999999993</v>
@@ -654,18 +668,18 @@
         <v>0.05</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10">
         <f>13.86/3</f>
@@ -682,18 +696,18 @@
         <v>3.9683099999999999E-2</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="10">
         <v>14.86</v>
@@ -709,18 +723,18 @@
         <v>8.1571000000000005E-2</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10">
         <v>28.8</v>
@@ -729,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="4">
         <v>6.6250000000000003E-2</v>
@@ -739,18 +753,18 @@
         <v>6.6250000000000003E-2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="10">
         <f>9.78/5</f>
@@ -760,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="4">
         <v>2.5000000000000001E-3</v>
@@ -770,18 +784,18 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10">
         <f>39.95</f>
@@ -798,18 +812,18 @@
         <v>0.94798800000000005</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="10">
         <v>7.95</v>
@@ -818,7 +832,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="4">
         <v>1.32277E-3</v>
@@ -828,18 +842,18 @@
         <v>1.32277E-3</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="10">
         <v>5.53</v>
@@ -848,7 +862,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="4">
         <v>5.68</v>
@@ -858,22 +872,22 @@
         <v>5.68</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="10">
         <v>5.53</v>
@@ -882,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="4">
         <v>5.68</v>
@@ -892,22 +906,22 @@
         <v>5.68</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="10">
         <v>2.15</v>
@@ -916,7 +930,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4">
         <v>4</v>
@@ -926,38 +940,56 @@
         <v>8</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
+        <v>0.03</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="10">
         <v>2.97</v>
@@ -966,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15" s="4">
         <f>6.6/16</f>
@@ -977,22 +1009,22 @@
         <v>0.41249999999999998</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="11">
         <v>8.14</v>
@@ -1008,50 +1040,77 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="4">
+        <f>D17*F17</f>
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="8"/>
     </row>
@@ -1071,8 +1130,9 @@
     <hyperlink ref="A15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="A16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="A12" r:id="rId14" xr:uid="{9B594192-29ED-47F6-8FFB-1BA1C37E9105}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{FD9BC2B9-6116-4DC0-A293-8673C6B58701}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>